--- a/biology/Microbiologie/Neokeronopsidae/Neokeronopsidae.xlsx
+++ b/biology/Microbiologie/Neokeronopsidae/Neokeronopsidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Neokeronopsidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Oxytrichida.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Neokeronopsis, de neo, « nouveau », et Keronopsis, par allusion au genre Keronopsis[note 1] ; nom lui-même composé de keron, par allusion au genre Kerona[note 2], et opsis, du suffixe grec ops, « qui a l'aspect de », le nom complet signifiant littéralement « Nouveau genre (ou nouvelle description) d'un protiste qui ressemble à un Kerona ». 
-Quant au nom de genre Kerona, Müller l’explique lorsqu'il décrit l’espèce Kerona rastellum « ob organa externa, nec cilia, nec pilos, sed aculeos seu cornicula simulentia. »[1] c'est-à-dire : « à cause des organes externes, ni cils ni poils, mais simulant des épines, ou des cornicules », comme celles de certains insectes ; le grec ancien κεράτια signifiant « caroubier » (du grec κέρας / kéras, « corne »). Les cornicules simulent en effet de « petites cornes ».
+Quant au nom de genre Kerona, Müller l’explique lorsqu'il décrit l’espèce Kerona rastellum « ob organa externa, nec cilia, nec pilos, sed aculeos seu cornicula simulentia. » c'est-à-dire : « à cause des organes externes, ni cils ni poils, mais simulant des épines, ou des cornicules », comme celles de certains insectes ; le grec ancien κεράτια signifiant « caroubier » (du grec κέρας / kéras, « corne »). Les cornicules simulent en effet de « petites cornes ».
 </t>
         </is>
       </c>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>La famille
-Les Neokeronopsidae sont des hypotriches, oxytrichidés, rigides ou flexibles, à motif cirral médio-ventral (c'est-à-dire dont les cirres sont localisés sur la partie centrale de la face ventrale), encore appelés « urostylidés », comprenant une couronne plus ou moins distincte de cirres frontaux et pseudobuccaux provenant tous deux des rangées médio-ventrales. Leur ciliature dorsale est composée de cinéties dorsomarginales (c'est-à-dire sur les bords de la face dorsale) et de trois rangées de cils ordinaires produisant d'autres cinéties par fragmentation multiple[2].
-L'espèce type
-Neokeronopsis spectabilis Kahl, 1932 est une espèce de grands ciliés urostylidés d'eau douce.
+          <t>La famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Neokeronopsidae sont des hypotriches, oxytrichidés, rigides ou flexibles, à motif cirral médio-ventral (c'est-à-dire dont les cirres sont localisés sur la partie centrale de la face ventrale), encore appelés « urostylidés », comprenant une couronne plus ou moins distincte de cirres frontaux et pseudobuccaux provenant tous deux des rangées médio-ventrales. Leur ciliature dorsale est composée de cinéties dorsomarginales (c'est-à-dire sur les bords de la face dorsale) et de trois rangées de cils ordinaires produisant d'autres cinéties par fragmentation multiple.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Neokeronopsidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neokeronopsidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'espèce type</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Neokeronopsis spectabilis Kahl, 1932 est une espèce de grands ciliés urostylidés d'eau douce.
 Sa morphologie est caractérisée par : 
 un cortex flexible ;
 une grande taille (368–500 μm de long) ;
@@ -560,7 +614,7 @@
 une longue rangée de cirres transversaux bien développés ;
 six à neuf cirres caudaux disposés en trois rangées, deux ou trois cirres par rangée ;
 neuf à douze cinéties dorsales ;
-deux nodules macronucléaires ovoïdes[3].</t>
+deux nodules macronucléaires ovoïdes.</t>
         </is>
       </c>
     </row>
